--- a/Improgress/2. Artifact and Deliverable/Testing/TE_FunctionTest/TE_Testcase_Module3_ver1.3/TE_Comparisonofbusinessresultsgraph(mobile)_ver1.3.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Testing/TE_FunctionTest/TE_Testcase_Module3_ver1.3/TE_Comparisonofbusinessresultsgraph(mobile)_ver1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\TE_FunctionTest\TE_Testcase_Module3_ver1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Testing\TE_FunctionTest\TE_Testcase_Module3_ver1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B4400-8823-4045-86D2-8EFC5226691D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EDBEB5-EC34-4F05-A0D4-76C57A9B3F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -1456,6 +1456,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,27 +1525,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1519,6 +1543,9 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1558,6 +1585,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1570,6 +1603,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,45 +1620,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,6 +1642,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CCDB0A-EE21-4081-B1F1-EB2B74D43B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3429000" cy="7048500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1960,31 +2026,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
@@ -2063,21 +2129,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
@@ -2123,17 +2189,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2146,13 +2212,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2161,7 +2228,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2179,80 +2246,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64">
+      <c r="B4" s="71"/>
+      <c r="C4" s="72">
         <v>43575</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
@@ -2284,7 +2351,7 @@
       <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="54" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="31"/>
@@ -2304,7 +2371,7 @@
       <c r="A10" s="25">
         <v>2</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="54" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="31"/>
@@ -2324,7 +2391,7 @@
       <c r="A11" s="25">
         <v>3</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="54" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="31"/>
@@ -2344,7 +2411,7 @@
       <c r="A12" s="25">
         <v>4</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="54" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="31"/>
@@ -2364,7 +2431,7 @@
       <c r="A13" s="25">
         <v>5</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="54" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="31"/>
@@ -2384,7 +2451,7 @@
       <c r="A14" s="25">
         <v>6</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="54" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="31"/>
@@ -2404,7 +2471,7 @@
       <c r="A15" s="25">
         <v>7</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="54" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="31" t="s">
@@ -2426,7 +2493,7 @@
       <c r="A16" s="25">
         <v>8</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="54" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -2448,7 +2515,7 @@
       <c r="A17" s="25">
         <v>9</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="54" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -2470,7 +2537,7 @@
       <c r="A18" s="25">
         <v>10</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="54" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="31" t="s">
@@ -2557,17 +2624,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2607,19 +2674,19 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="81">
+      <c r="A4" s="92">
         <v>1</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="40">
@@ -2629,79 +2696,79 @@
         <v>111</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="40">
         <v>2</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="40">
         <v>3</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="92"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="40">
         <v>4</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="48" t="s">
         <v>183</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="92"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="81">
+      <c r="A8" s="92">
         <v>2</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F8" s="40">
@@ -2711,79 +2778,79 @@
         <v>111</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="J8" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="40">
         <v>2</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="92"/>
+      <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="40">
         <v>3</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="91" t="s">
+      <c r="I10" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="92"/>
+      <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="40">
         <v>3</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="48" t="s">
         <v>184</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="92"/>
+      <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="81">
+      <c r="A12" s="92">
         <v>3</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F12" s="40">
@@ -2793,55 +2860,55 @@
         <v>111</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="91" t="s">
+      <c r="I12" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="84"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="40">
         <v>2</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="92"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="40">
         <v>3</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="92"/>
+      <c r="J14" s="90"/>
     </row>
     <row r="15" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="40">
         <v>4</v>
       </c>
@@ -2852,902 +2919,902 @@
       <c r="I15" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="92"/>
+      <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="81">
+      <c r="A16" s="92">
         <v>4</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="40">
         <v>1</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="92" t="s">
+      <c r="J16" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="40">
         <v>2</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="92"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="40">
         <v>3</v>
       </c>
-      <c r="G18" s="93" t="s">
+      <c r="G18" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="91" t="s">
+      <c r="I18" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="92"/>
+      <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="40">
         <v>4</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="91"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="92"/>
+      <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="40">
         <v>5</v>
       </c>
-      <c r="G20" s="93" t="s">
+      <c r="G20" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="94" t="s">
+      <c r="H20" s="49" t="s">
         <v>119</v>
       </c>
       <c r="I20" s="29"/>
-      <c r="J20" s="92"/>
+      <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="81"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
       <c r="F21" s="40">
         <v>6</v>
       </c>
-      <c r="G21" s="93" t="s">
+      <c r="G21" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="H21" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="29"/>
-      <c r="J21" s="92"/>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="81"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="40">
         <v>7</v>
       </c>
-      <c r="G22" s="93" t="s">
+      <c r="G22" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H22" s="29">
         <v>2016</v>
       </c>
       <c r="I22" s="29"/>
-      <c r="J22" s="92"/>
+      <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="40">
         <v>8</v>
       </c>
-      <c r="G23" s="93" t="s">
+      <c r="G23" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I23" s="29"/>
-      <c r="J23" s="92"/>
+      <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="40">
         <v>9</v>
       </c>
-      <c r="G24" s="93" t="s">
+      <c r="G24" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I24" s="29"/>
-      <c r="J24" s="92"/>
+      <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="81"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
       <c r="F25" s="40">
         <v>10</v>
       </c>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="91" t="s">
+      <c r="I25" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="92"/>
+      <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="81">
+      <c r="A26" s="92">
         <v>5</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F26" s="40">
         <v>1</v>
       </c>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="91" t="s">
+      <c r="I26" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J26" s="92" t="s">
+      <c r="J26" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="40">
         <v>2</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="92"/>
+      <c r="J27" s="90"/>
     </row>
     <row r="28" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="40">
         <v>3</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="48" t="s">
         <v>165</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="92"/>
+      <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
       <c r="F29" s="40">
         <v>4</v>
       </c>
-      <c r="G29" s="93" t="s">
+      <c r="G29" s="48" t="s">
         <v>186</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="92"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="40">
         <v>5</v>
       </c>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="91" t="s">
+      <c r="H30" s="47" t="s">
         <v>119</v>
       </c>
       <c r="I30" s="29"/>
-      <c r="J30" s="92"/>
+      <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="81"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="40">
         <v>6</v>
       </c>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H31" s="29">
         <v>2019</v>
       </c>
       <c r="I31" s="29"/>
-      <c r="J31" s="92"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="40">
         <v>7</v>
       </c>
-      <c r="G32" s="93" t="s">
+      <c r="G32" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H32" s="91" t="s">
+      <c r="H32" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="92"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
       <c r="F33" s="40">
         <v>8</v>
       </c>
-      <c r="G33" s="93" t="s">
+      <c r="G33" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H33" s="91" t="s">
+      <c r="H33" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I33" s="29"/>
-      <c r="J33" s="92"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="40">
         <v>9</v>
       </c>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="J34" s="92"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="81">
+      <c r="A35" s="92">
         <v>6</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F35" s="40">
         <v>1</v>
       </c>
-      <c r="G35" s="93" t="s">
+      <c r="G35" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="91" t="s">
+      <c r="I35" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J35" s="92" t="s">
+      <c r="J35" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="95"/>
       <c r="F36" s="40">
         <v>2</v>
       </c>
-      <c r="G36" s="93" t="s">
+      <c r="G36" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J36" s="92"/>
+      <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="40">
         <v>3</v>
       </c>
-      <c r="G37" s="93" t="s">
+      <c r="G37" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="91" t="s">
+      <c r="I37" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="92"/>
+      <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="40">
         <v>4</v>
       </c>
-      <c r="G38" s="93" t="s">
+      <c r="G38" s="48" t="s">
         <v>187</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="95" t="s">
+      <c r="I38" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="92"/>
+      <c r="J38" s="90"/>
     </row>
     <row r="39" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="84"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="40">
         <v>6</v>
       </c>
-      <c r="G39" s="93" t="s">
+      <c r="G39" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H39" s="29">
         <v>2019</v>
       </c>
       <c r="I39" s="29"/>
-      <c r="J39" s="92"/>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="95"/>
       <c r="F40" s="40">
         <v>7</v>
       </c>
-      <c r="G40" s="93" t="s">
+      <c r="G40" s="48" t="s">
         <v>173</v>
       </c>
       <c r="H40" s="29">
         <v>2</v>
       </c>
       <c r="I40" s="29"/>
-      <c r="J40" s="92"/>
+      <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="40">
         <v>7</v>
       </c>
-      <c r="G41" s="93" t="s">
+      <c r="G41" s="48" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="29">
         <v>2</v>
       </c>
       <c r="I41" s="29"/>
-      <c r="J41" s="92"/>
+      <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="40">
         <v>8</v>
       </c>
-      <c r="G42" s="93" t="s">
+      <c r="G42" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="92"/>
+      <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="81">
+      <c r="A43" s="92">
         <v>7</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="84" t="s">
+      <c r="E43" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="40">
         <v>1</v>
       </c>
-      <c r="G43" s="93" t="s">
+      <c r="G43" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="91" t="s">
+      <c r="I43" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J43" s="92"/>
+      <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="81"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="95"/>
       <c r="F44" s="40">
         <v>2</v>
       </c>
-      <c r="G44" s="93" t="s">
+      <c r="G44" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J44" s="92"/>
+      <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="84"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="95"/>
       <c r="F45" s="40">
         <v>3</v>
       </c>
-      <c r="G45" s="93" t="s">
+      <c r="G45" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="92"/>
+      <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="84"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="95"/>
       <c r="F46" s="40">
         <v>4</v>
       </c>
-      <c r="G46" s="93" t="s">
+      <c r="G46" s="48" t="s">
         <v>183</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J46" s="92"/>
+      <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="81"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="84"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="40">
         <v>5</v>
       </c>
-      <c r="G47" s="93" t="s">
+      <c r="G47" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H47" s="94" t="s">
+      <c r="H47" s="49" t="s">
         <v>119</v>
       </c>
       <c r="I47" s="29"/>
-      <c r="J47" s="92"/>
+      <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="84"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="40">
         <v>6</v>
       </c>
-      <c r="G48" s="93" t="s">
+      <c r="G48" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H48" s="91" t="s">
+      <c r="H48" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I48" s="29"/>
-      <c r="J48" s="92"/>
+      <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="81"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="84"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="95"/>
       <c r="F49" s="40">
         <v>6</v>
       </c>
-      <c r="G49" s="93" t="s">
+      <c r="G49" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H49" s="29">
         <v>2016</v>
       </c>
       <c r="I49" s="29"/>
-      <c r="J49" s="92"/>
+      <c r="J49" s="90"/>
     </row>
     <row r="50" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="84"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="95"/>
       <c r="F50" s="40">
         <v>7</v>
       </c>
-      <c r="G50" s="93" t="s">
+      <c r="G50" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H50" s="96" t="s">
+      <c r="H50" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I50" s="29"/>
-      <c r="J50" s="92"/>
+      <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="81"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="84"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="40">
         <v>8</v>
       </c>
-      <c r="G51" s="93" t="s">
+      <c r="G51" s="48" t="s">
         <v>175</v>
       </c>
       <c r="H51" s="29"/>
-      <c r="I51" s="91" t="s">
+      <c r="I51" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J51" s="92"/>
+      <c r="J51" s="90"/>
     </row>
     <row r="52" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="81"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="84"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="95"/>
       <c r="F52" s="40">
         <v>8</v>
       </c>
-      <c r="G52" s="93" t="s">
+      <c r="G52" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H52" s="29"/>
-      <c r="I52" s="91" t="s">
+      <c r="I52" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J52" s="92"/>
+      <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="81">
+      <c r="A53" s="92">
         <v>8</v>
       </c>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82" t="s">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="83" t="s">
+      <c r="D53" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="84" t="s">
+      <c r="E53" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F53" s="40">
         <v>1</v>
       </c>
-      <c r="G53" s="93" t="s">
+      <c r="G53" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H53" s="29"/>
-      <c r="I53" s="91" t="s">
+      <c r="I53" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="92" t="s">
+      <c r="J53" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="81"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="84"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="95"/>
       <c r="F54" s="40">
         <v>2</v>
       </c>
-      <c r="G54" s="93" t="s">
+      <c r="G54" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J54" s="92"/>
+      <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="81"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="84"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="95"/>
       <c r="F55" s="40">
         <v>3</v>
       </c>
-      <c r="G55" s="93" t="s">
+      <c r="G55" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="92"/>
+      <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="84"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="95"/>
       <c r="F56" s="40">
         <v>4</v>
       </c>
-      <c r="G56" s="93" t="s">
+      <c r="G56" s="48" t="s">
         <v>188</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="J56" s="92"/>
+      <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="84"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="95"/>
       <c r="F57" s="40">
         <v>5</v>
       </c>
-      <c r="G57" s="93" t="s">
+      <c r="G57" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H57" s="91" t="s">
+      <c r="H57" s="47" t="s">
         <v>119</v>
       </c>
       <c r="I57" s="29"/>
-      <c r="J57" s="92"/>
+      <c r="J57" s="90"/>
     </row>
     <row r="58" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="81"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="84"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="95"/>
       <c r="F58" s="40">
         <v>6</v>
       </c>
-      <c r="G58" s="93" t="s">
+      <c r="G58" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H58" s="29">
         <v>2019</v>
       </c>
       <c r="I58" s="29"/>
-      <c r="J58" s="92"/>
+      <c r="J58" s="90"/>
     </row>
     <row r="59" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="81"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="84"/>
+      <c r="A59" s="92"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="95"/>
       <c r="F59" s="40">
         <v>7</v>
       </c>
-      <c r="G59" s="93" t="s">
+      <c r="G59" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H59" s="91" t="s">
+      <c r="H59" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I59" s="29"/>
-      <c r="J59" s="92"/>
+      <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="84"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="40">
         <v>8</v>
       </c>
-      <c r="G60" s="93" t="s">
+      <c r="G60" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H60" s="96" t="s">
+      <c r="H60" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I60" s="29"/>
-      <c r="J60" s="92"/>
+      <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="84"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="95"/>
       <c r="F61" s="40">
         <v>8</v>
       </c>
-      <c r="G61" s="93" t="s">
+      <c r="G61" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="J61" s="92"/>
+      <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="81">
+      <c r="A62" s="92">
         <v>9</v>
       </c>
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="83" t="s">
+      <c r="D62" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="84" t="s">
+      <c r="E62" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F62" s="40">
@@ -3760,16 +3827,16 @@
       <c r="I62" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J62" s="92" t="s">
+      <c r="J62" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="81"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="84"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="95"/>
       <c r="F63" s="40">
         <v>2</v>
       </c>
@@ -3780,14 +3847,14 @@
       <c r="I63" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J63" s="92"/>
+      <c r="J63" s="90"/>
     </row>
     <row r="64" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="81"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="84"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="95"/>
       <c r="F64" s="40">
         <v>3</v>
       </c>
@@ -3798,14 +3865,14 @@
       <c r="I64" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="92"/>
+      <c r="J64" s="90"/>
     </row>
     <row r="65" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="84"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="95"/>
       <c r="F65" s="40">
         <v>4</v>
       </c>
@@ -3816,550 +3883,550 @@
       <c r="I65" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J65" s="92"/>
+      <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="81"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="84"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="95"/>
       <c r="F66" s="40">
         <v>5</v>
       </c>
-      <c r="G66" s="93" t="s">
+      <c r="G66" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H66" s="96" t="s">
+      <c r="H66" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I66" s="29"/>
-      <c r="J66" s="92"/>
+      <c r="J66" s="90"/>
     </row>
     <row r="67" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="81"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="84"/>
+      <c r="A67" s="92"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="95"/>
       <c r="F67" s="40">
         <v>6</v>
       </c>
-      <c r="G67" s="93" t="s">
+      <c r="G67" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H67" s="96" t="s">
+      <c r="H67" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I67" s="29"/>
-      <c r="J67" s="92"/>
+      <c r="J67" s="90"/>
     </row>
     <row r="68" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="81"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="84"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="94"/>
+      <c r="E68" s="95"/>
       <c r="F68" s="40">
         <v>6</v>
       </c>
-      <c r="G68" s="93" t="s">
+      <c r="G68" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H68" s="29">
         <v>2016</v>
       </c>
       <c r="I68" s="29"/>
-      <c r="J68" s="92"/>
+      <c r="J68" s="90"/>
     </row>
     <row r="69" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="81"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="84"/>
+      <c r="A69" s="92"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="95"/>
       <c r="F69" s="40">
         <v>7</v>
       </c>
-      <c r="G69" s="93" t="s">
+      <c r="G69" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H69" s="91" t="s">
+      <c r="H69" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I69" s="29"/>
-      <c r="J69" s="92"/>
+      <c r="J69" s="90"/>
     </row>
     <row r="70" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="81"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="84"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="93"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="95"/>
       <c r="F70" s="40">
         <v>8</v>
       </c>
-      <c r="G70" s="93" t="s">
+      <c r="G70" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H70" s="91" t="s">
+      <c r="H70" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I70" s="29"/>
-      <c r="J70" s="92"/>
+      <c r="J70" s="90"/>
     </row>
     <row r="71" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="81"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="84"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="95"/>
       <c r="F71" s="40">
         <v>8</v>
       </c>
-      <c r="G71" s="93" t="s">
+      <c r="G71" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H71" s="29"/>
       <c r="I71" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J71" s="92"/>
+      <c r="J71" s="90"/>
     </row>
     <row r="72" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="81">
+      <c r="A72" s="92">
         <v>10</v>
       </c>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82" t="s">
+      <c r="B72" s="93"/>
+      <c r="C72" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="83" t="s">
+      <c r="D72" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="E72" s="84" t="s">
+      <c r="E72" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F72" s="40">
         <v>1</v>
       </c>
-      <c r="G72" s="93" t="s">
+      <c r="G72" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H72" s="29"/>
-      <c r="I72" s="91" t="s">
+      <c r="I72" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J72" s="92" t="s">
+      <c r="J72" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="81"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="84"/>
+      <c r="A73" s="92"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="95"/>
       <c r="F73" s="40">
         <v>2</v>
       </c>
-      <c r="G73" s="93" t="s">
+      <c r="G73" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J73" s="92"/>
+      <c r="J73" s="90"/>
     </row>
     <row r="74" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="81"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="84"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="40">
         <v>3</v>
       </c>
-      <c r="G74" s="93" t="s">
+      <c r="G74" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H74" s="29"/>
       <c r="I74" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J74" s="92"/>
+      <c r="J74" s="90"/>
     </row>
     <row r="75" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A75" s="81"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="84"/>
+      <c r="A75" s="92"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="95"/>
       <c r="F75" s="40">
         <v>4</v>
       </c>
-      <c r="G75" s="93" t="s">
+      <c r="G75" s="48" t="s">
         <v>183</v>
       </c>
       <c r="H75" s="29"/>
       <c r="I75" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J75" s="92"/>
+      <c r="J75" s="90"/>
     </row>
     <row r="76" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="81"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="84"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="95"/>
       <c r="F76" s="40">
         <v>5</v>
       </c>
-      <c r="G76" s="93" t="s">
+      <c r="G76" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H76" s="96" t="s">
+      <c r="H76" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I76" s="29"/>
-      <c r="J76" s="92"/>
+      <c r="J76" s="90"/>
     </row>
     <row r="77" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="81"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="84"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
       <c r="F77" s="40">
         <v>6</v>
       </c>
-      <c r="G77" s="93" t="s">
+      <c r="G77" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H77" s="91" t="s">
+      <c r="H77" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I77" s="29"/>
-      <c r="J77" s="92"/>
+      <c r="J77" s="90"/>
     </row>
     <row r="78" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="81"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="84"/>
+      <c r="A78" s="92"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="95"/>
       <c r="F78" s="40">
         <v>6</v>
       </c>
-      <c r="G78" s="93" t="s">
+      <c r="G78" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H78" s="29">
         <v>2019</v>
       </c>
       <c r="I78" s="29"/>
-      <c r="J78" s="92"/>
+      <c r="J78" s="90"/>
     </row>
     <row r="79" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="81"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="84"/>
+      <c r="A79" s="92"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="95"/>
       <c r="F79" s="40">
         <v>7</v>
       </c>
-      <c r="G79" s="93" t="s">
+      <c r="G79" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H79" s="91" t="s">
+      <c r="H79" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I79" s="29"/>
-      <c r="J79" s="92"/>
+      <c r="J79" s="90"/>
     </row>
     <row r="80" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="81"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="84"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="95"/>
       <c r="F80" s="40">
         <v>8</v>
       </c>
-      <c r="G80" s="93" t="s">
+      <c r="G80" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H80" s="91" t="s">
+      <c r="H80" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I80" s="29"/>
-      <c r="J80" s="92"/>
+      <c r="J80" s="90"/>
     </row>
     <row r="81" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="81"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="84"/>
+      <c r="A81" s="92"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="95"/>
       <c r="F81" s="40">
         <v>8</v>
       </c>
-      <c r="G81" s="93" t="s">
+      <c r="G81" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H81" s="29"/>
-      <c r="I81" s="91" t="s">
+      <c r="I81" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J81" s="92"/>
+      <c r="J81" s="90"/>
     </row>
     <row r="82" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="81">
+      <c r="A82" s="92">
         <v>11</v>
       </c>
-      <c r="B82" s="82"/>
-      <c r="C82" s="82" t="s">
+      <c r="B82" s="93"/>
+      <c r="C82" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D82" s="83" t="s">
+      <c r="D82" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="E82" s="84" t="s">
+      <c r="E82" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F82" s="40">
         <v>1</v>
       </c>
-      <c r="G82" s="93" t="s">
+      <c r="G82" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H82" s="29"/>
-      <c r="I82" s="91" t="s">
+      <c r="I82" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J82" s="92" t="s">
+      <c r="J82" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="81"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="84"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
       <c r="F83" s="40">
         <v>2</v>
       </c>
-      <c r="G83" s="93" t="s">
+      <c r="G83" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H83" s="29"/>
       <c r="I83" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J83" s="92"/>
+      <c r="J83" s="90"/>
     </row>
     <row r="84" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="81"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="84"/>
+      <c r="A84" s="92"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="95"/>
       <c r="F84" s="40">
         <v>3</v>
       </c>
-      <c r="G84" s="93" t="s">
+      <c r="G84" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H84" s="29"/>
-      <c r="I84" s="91" t="s">
+      <c r="I84" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="J84" s="92"/>
+      <c r="J84" s="90"/>
     </row>
     <row r="85" spans="1:10" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="81"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="84"/>
+      <c r="A85" s="92"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="95"/>
       <c r="F85" s="40">
         <v>4</v>
       </c>
-      <c r="G85" s="93" t="s">
+      <c r="G85" s="48" t="s">
         <v>190</v>
       </c>
       <c r="H85" s="29"/>
-      <c r="I85" s="95" t="s">
+      <c r="I85" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="J85" s="92"/>
+      <c r="J85" s="90"/>
     </row>
     <row r="86" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="81"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="84"/>
+      <c r="A86" s="92"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="95"/>
       <c r="F86" s="40">
         <v>5</v>
       </c>
-      <c r="G86" s="93" t="s">
+      <c r="G86" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H86" s="96" t="s">
+      <c r="H86" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I86" s="29"/>
-      <c r="J86" s="92"/>
+      <c r="J86" s="90"/>
     </row>
     <row r="87" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="81"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="84"/>
+      <c r="A87" s="92"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="95"/>
       <c r="F87" s="40">
         <v>6</v>
       </c>
-      <c r="G87" s="93" t="s">
+      <c r="G87" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H87" s="29">
         <v>2019</v>
       </c>
       <c r="I87" s="29"/>
-      <c r="J87" s="92"/>
+      <c r="J87" s="90"/>
     </row>
     <row r="88" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="81"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="84"/>
+      <c r="A88" s="92"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="95"/>
       <c r="F88" s="40">
         <v>7</v>
       </c>
-      <c r="G88" s="93" t="s">
+      <c r="G88" s="48" t="s">
         <v>173</v>
       </c>
       <c r="H88" s="29">
         <v>2</v>
       </c>
       <c r="I88" s="29"/>
-      <c r="J88" s="92"/>
+      <c r="J88" s="90"/>
     </row>
     <row r="89" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="81"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="84"/>
+      <c r="A89" s="92"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="95"/>
       <c r="F89" s="40">
         <v>7</v>
       </c>
-      <c r="G89" s="93" t="s">
+      <c r="G89" s="48" t="s">
         <v>127</v>
       </c>
       <c r="H89" s="29">
         <v>2</v>
       </c>
       <c r="I89" s="29"/>
-      <c r="J89" s="92"/>
+      <c r="J89" s="90"/>
     </row>
     <row r="90" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="81"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="84"/>
+      <c r="A90" s="92"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="95"/>
       <c r="F90" s="40">
         <v>8</v>
       </c>
-      <c r="G90" s="93" t="s">
+      <c r="G90" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H90" s="29"/>
       <c r="I90" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J90" s="92"/>
+      <c r="J90" s="90"/>
     </row>
     <row r="91" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="81">
+      <c r="A91" s="92">
         <v>12</v>
       </c>
-      <c r="B91" s="82" t="s">
+      <c r="B91" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="82" t="s">
+      <c r="C91" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D91" s="83" t="s">
+      <c r="D91" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="E91" s="84" t="s">
+      <c r="E91" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F91" s="40">
         <v>1</v>
       </c>
-      <c r="G91" s="93" t="s">
+      <c r="G91" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H91" s="29"/>
-      <c r="I91" s="91" t="s">
+      <c r="I91" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J91" s="92" t="s">
+      <c r="J91" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="81"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="84"/>
+      <c r="A92" s="92"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="95"/>
       <c r="F92" s="40">
         <v>2</v>
       </c>
-      <c r="G92" s="93" t="s">
+      <c r="G92" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H92" s="29"/>
       <c r="I92" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J92" s="92"/>
+      <c r="J92" s="90"/>
     </row>
     <row r="93" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="81"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="84"/>
+      <c r="A93" s="92"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="95"/>
       <c r="F93" s="40">
         <v>3</v>
       </c>
-      <c r="G93" s="93" t="s">
+      <c r="G93" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H93" s="29"/>
-      <c r="I93" s="91" t="s">
+      <c r="I93" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="J93" s="92"/>
+      <c r="J93" s="90"/>
     </row>
     <row r="94" spans="1:10" s="36" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="84"/>
+      <c r="A94" s="92"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="40">
         <v>4</v>
       </c>
@@ -4367,303 +4434,303 @@
         <v>72</v>
       </c>
       <c r="H94" s="29"/>
-      <c r="I94" s="95" t="s">
+      <c r="I94" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="J94" s="92"/>
+      <c r="J94" s="90"/>
     </row>
     <row r="95" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="81"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="84"/>
+      <c r="A95" s="92"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="95"/>
       <c r="F95" s="40">
         <v>6</v>
       </c>
-      <c r="G95" s="93" t="s">
+      <c r="G95" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H95" s="94" t="s">
+      <c r="H95" s="49" t="s">
         <v>119</v>
       </c>
       <c r="I95" s="29"/>
-      <c r="J95" s="92"/>
+      <c r="J95" s="90"/>
     </row>
     <row r="96" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="81"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="84"/>
+      <c r="A96" s="92"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="95"/>
       <c r="F96" s="40">
         <v>7</v>
       </c>
-      <c r="G96" s="93" t="s">
+      <c r="G96" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H96" s="91" t="s">
+      <c r="H96" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I96" s="29"/>
-      <c r="J96" s="92"/>
+      <c r="J96" s="90"/>
     </row>
     <row r="97" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="81"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="84"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="94"/>
+      <c r="E97" s="95"/>
       <c r="F97" s="40">
         <v>6</v>
       </c>
-      <c r="G97" s="93" t="s">
+      <c r="G97" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H97" s="41" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="29"/>
-      <c r="J97" s="92"/>
+      <c r="J97" s="90"/>
     </row>
     <row r="98" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="81"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="84"/>
+      <c r="A98" s="92"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="95"/>
       <c r="F98" s="40">
         <v>7</v>
       </c>
-      <c r="G98" s="93" t="s">
+      <c r="G98" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H98" s="91" t="s">
+      <c r="H98" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I98" s="29"/>
-      <c r="J98" s="92"/>
+      <c r="J98" s="90"/>
     </row>
     <row r="99" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="81"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="84"/>
+      <c r="A99" s="92"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="95"/>
       <c r="F99" s="40">
         <v>8</v>
       </c>
-      <c r="G99" s="93" t="s">
+      <c r="G99" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="91" t="s">
+      <c r="H99" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I99" s="29"/>
-      <c r="J99" s="92"/>
+      <c r="J99" s="90"/>
     </row>
     <row r="100" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="81"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="84"/>
+      <c r="A100" s="92"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="40">
         <v>8</v>
       </c>
-      <c r="G100" s="93" t="s">
+      <c r="G100" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H100" s="29"/>
-      <c r="I100" s="91" t="s">
+      <c r="I100" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J100" s="92"/>
+      <c r="J100" s="90"/>
     </row>
     <row r="101" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="81">
+      <c r="A101" s="92">
         <v>13</v>
       </c>
-      <c r="B101" s="82"/>
-      <c r="C101" s="82" t="s">
+      <c r="B101" s="93"/>
+      <c r="C101" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="83" t="s">
+      <c r="D101" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="E101" s="84" t="s">
+      <c r="E101" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F101" s="40">
         <v>1</v>
       </c>
-      <c r="G101" s="93" t="s">
+      <c r="G101" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H101" s="29"/>
-      <c r="I101" s="91" t="s">
+      <c r="I101" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J101" s="92" t="s">
+      <c r="J101" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="81"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="84"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="95"/>
       <c r="F102" s="40">
         <v>2</v>
       </c>
-      <c r="G102" s="93" t="s">
+      <c r="G102" s="48" t="s">
         <v>162</v>
       </c>
       <c r="H102" s="29"/>
       <c r="I102" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J102" s="92"/>
+      <c r="J102" s="90"/>
     </row>
     <row r="103" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="81"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="84"/>
+      <c r="A103" s="92"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="95"/>
       <c r="F103" s="40">
         <v>3</v>
       </c>
-      <c r="G103" s="93" t="s">
+      <c r="G103" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H103" s="29"/>
-      <c r="I103" s="91" t="s">
+      <c r="I103" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="J103" s="92"/>
+      <c r="J103" s="90"/>
     </row>
     <row r="104" spans="1:10" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="81"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="84"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="95"/>
       <c r="F104" s="40">
         <v>4</v>
       </c>
-      <c r="G104" s="93" t="s">
+      <c r="G104" s="48" t="s">
         <v>188</v>
       </c>
       <c r="H104" s="29"/>
-      <c r="I104" s="95" t="s">
+      <c r="I104" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="J104" s="92"/>
+      <c r="J104" s="90"/>
     </row>
     <row r="105" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="81"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="84"/>
+      <c r="A105" s="92"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="95"/>
       <c r="F105" s="40">
         <v>5</v>
       </c>
-      <c r="G105" s="93" t="s">
+      <c r="G105" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H105" s="91" t="s">
+      <c r="H105" s="47" t="s">
         <v>119</v>
       </c>
       <c r="I105" s="29"/>
-      <c r="J105" s="92"/>
+      <c r="J105" s="90"/>
     </row>
     <row r="106" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="81"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="84"/>
+      <c r="A106" s="92"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="95"/>
       <c r="F106" s="40">
         <v>6</v>
       </c>
-      <c r="G106" s="93" t="s">
+      <c r="G106" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H106" s="96" t="s">
+      <c r="H106" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I106" s="29"/>
-      <c r="J106" s="92"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="81"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="84"/>
+      <c r="A107" s="92"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="95"/>
       <c r="F107" s="40">
         <v>7</v>
       </c>
-      <c r="G107" s="93" t="s">
+      <c r="G107" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H107" s="91" t="s">
+      <c r="H107" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I107" s="29"/>
-      <c r="J107" s="92"/>
+      <c r="J107" s="90"/>
     </row>
     <row r="108" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="81"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="84"/>
+      <c r="A108" s="92"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="95"/>
       <c r="F108" s="40">
         <v>8</v>
       </c>
-      <c r="G108" s="93" t="s">
+      <c r="G108" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H108" s="91" t="s">
+      <c r="H108" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I108" s="29"/>
-      <c r="J108" s="92"/>
+      <c r="J108" s="90"/>
     </row>
     <row r="109" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="81"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="84"/>
+      <c r="A109" s="92"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="93"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="95"/>
       <c r="F109" s="40">
         <v>8</v>
       </c>
-      <c r="G109" s="93" t="s">
+      <c r="G109" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H109" s="29"/>
-      <c r="I109" s="91" t="s">
+      <c r="I109" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J109" s="92"/>
+      <c r="J109" s="90"/>
     </row>
     <row r="110" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="81">
+      <c r="A110" s="92">
         <v>14</v>
       </c>
-      <c r="B110" s="82"/>
-      <c r="C110" s="82" t="s">
+      <c r="B110" s="93"/>
+      <c r="C110" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="83" t="s">
+      <c r="D110" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="E110" s="84" t="s">
+      <c r="E110" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F110" s="40">
@@ -4673,19 +4740,19 @@
         <v>137</v>
       </c>
       <c r="H110" s="29"/>
-      <c r="I110" s="91" t="s">
+      <c r="I110" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J110" s="92" t="s">
+      <c r="J110" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="81"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="82"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="84"/>
+      <c r="A111" s="92"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="93"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="95"/>
       <c r="F111" s="40">
         <v>2</v>
       </c>
@@ -4696,32 +4763,32 @@
       <c r="I111" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J111" s="92"/>
+      <c r="J111" s="90"/>
     </row>
     <row r="112" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="81"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="84"/>
+      <c r="A112" s="92"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="93"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="95"/>
       <c r="F112" s="40">
         <v>3</v>
       </c>
-      <c r="G112" s="93" t="s">
+      <c r="G112" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H112" s="29"/>
-      <c r="I112" s="91" t="s">
+      <c r="I112" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="J112" s="92"/>
+      <c r="J112" s="90"/>
     </row>
     <row r="113" spans="1:10" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="81"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="82"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="84"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="95"/>
       <c r="F113" s="40">
         <v>4</v>
       </c>
@@ -4729,119 +4796,119 @@
         <v>73</v>
       </c>
       <c r="H113" s="29"/>
-      <c r="I113" s="95" t="s">
+      <c r="I113" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="J113" s="92"/>
+      <c r="J113" s="90"/>
     </row>
     <row r="114" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="81"/>
-      <c r="B114" s="82"/>
-      <c r="C114" s="82"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="84"/>
+      <c r="A114" s="92"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="95"/>
       <c r="F114" s="40">
         <v>6</v>
       </c>
-      <c r="G114" s="93" t="s">
+      <c r="G114" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H114" s="41" t="s">
         <v>145</v>
       </c>
       <c r="I114" s="29"/>
-      <c r="J114" s="92"/>
+      <c r="J114" s="90"/>
     </row>
     <row r="115" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="81"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="82"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="84"/>
+      <c r="A115" s="92"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="93"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="95"/>
       <c r="F115" s="40">
         <v>7</v>
       </c>
-      <c r="G115" s="93" t="s">
+      <c r="G115" s="48" t="s">
         <v>173</v>
       </c>
       <c r="H115" s="29">
         <v>2</v>
       </c>
       <c r="I115" s="29"/>
-      <c r="J115" s="92"/>
+      <c r="J115" s="90"/>
     </row>
     <row r="116" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="81"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="84"/>
+      <c r="A116" s="92"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="93"/>
+      <c r="D116" s="94"/>
+      <c r="E116" s="95"/>
       <c r="F116" s="40">
         <v>7</v>
       </c>
-      <c r="G116" s="93" t="s">
+      <c r="G116" s="48" t="s">
         <v>127</v>
       </c>
       <c r="H116" s="29">
         <v>2</v>
       </c>
       <c r="I116" s="29"/>
-      <c r="J116" s="92"/>
+      <c r="J116" s="90"/>
     </row>
     <row r="117" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="81"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="84"/>
+      <c r="A117" s="92"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="95"/>
       <c r="F117" s="40">
         <v>8</v>
       </c>
-      <c r="G117" s="93" t="s">
+      <c r="G117" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H117" s="29"/>
       <c r="I117" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J117" s="92"/>
+      <c r="J117" s="90"/>
     </row>
     <row r="118" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="81">
+      <c r="A118" s="92">
         <v>15</v>
       </c>
-      <c r="B118" s="82" t="s">
+      <c r="B118" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="82" t="s">
+      <c r="C118" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D118" s="83" t="s">
+      <c r="D118" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E118" s="84" t="s">
+      <c r="E118" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F118" s="40">
         <v>1</v>
       </c>
-      <c r="G118" s="93" t="s">
+      <c r="G118" s="48" t="s">
         <v>111</v>
       </c>
       <c r="H118" s="29"/>
-      <c r="I118" s="91" t="s">
+      <c r="I118" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J118" s="92" t="s">
+      <c r="J118" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="81"/>
-      <c r="B119" s="82"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="84"/>
+      <c r="A119" s="92"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="95"/>
       <c r="F119" s="40">
         <v>2</v>
       </c>
@@ -4852,14 +4919,14 @@
       <c r="I119" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J119" s="92"/>
+      <c r="J119" s="90"/>
     </row>
     <row r="120" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="81"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="83"/>
-      <c r="E120" s="84"/>
+      <c r="A120" s="92"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="93"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="95"/>
       <c r="F120" s="40">
         <v>3</v>
       </c>
@@ -4870,14 +4937,14 @@
       <c r="I120" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J120" s="92"/>
+      <c r="J120" s="90"/>
     </row>
     <row r="121" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A121" s="81"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="84"/>
+      <c r="A121" s="92"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="93"/>
+      <c r="D121" s="94"/>
+      <c r="E121" s="95"/>
       <c r="F121" s="40">
         <v>4</v>
       </c>
@@ -4888,140 +4955,140 @@
       <c r="I121" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J121" s="92"/>
+      <c r="J121" s="90"/>
     </row>
     <row r="122" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="81"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="84"/>
+      <c r="A122" s="92"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="94"/>
+      <c r="E122" s="95"/>
       <c r="F122" s="40">
         <v>6</v>
       </c>
-      <c r="G122" s="93" t="s">
+      <c r="G122" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H122" s="94" t="s">
+      <c r="H122" s="49" t="s">
         <v>119</v>
       </c>
       <c r="I122" s="29"/>
-      <c r="J122" s="92"/>
+      <c r="J122" s="90"/>
     </row>
     <row r="123" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="81"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="84"/>
+      <c r="A123" s="92"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="93"/>
+      <c r="D123" s="94"/>
+      <c r="E123" s="95"/>
       <c r="F123" s="40">
         <v>7</v>
       </c>
-      <c r="G123" s="93" t="s">
+      <c r="G123" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H123" s="91" t="s">
+      <c r="H123" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I123" s="29"/>
-      <c r="J123" s="92"/>
+      <c r="J123" s="90"/>
     </row>
     <row r="124" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="81"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="83"/>
-      <c r="E124" s="84"/>
+      <c r="A124" s="92"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="94"/>
+      <c r="E124" s="95"/>
       <c r="F124" s="40">
         <v>6</v>
       </c>
-      <c r="G124" s="93" t="s">
+      <c r="G124" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H124" s="96" t="s">
+      <c r="H124" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I124" s="29"/>
-      <c r="J124" s="92"/>
+      <c r="J124" s="90"/>
     </row>
     <row r="125" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="81"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="83"/>
-      <c r="E125" s="84"/>
+      <c r="A125" s="92"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="95"/>
       <c r="F125" s="40">
         <v>7</v>
       </c>
-      <c r="G125" s="93" t="s">
+      <c r="G125" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H125" s="96" t="s">
+      <c r="H125" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I125" s="29"/>
-      <c r="J125" s="92"/>
+      <c r="J125" s="90"/>
     </row>
     <row r="126" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="81"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="83"/>
-      <c r="E126" s="84"/>
+      <c r="A126" s="92"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="93"/>
+      <c r="D126" s="94"/>
+      <c r="E126" s="95"/>
       <c r="F126" s="40">
         <v>8</v>
       </c>
-      <c r="G126" s="93" t="s">
+      <c r="G126" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="H126" s="96" t="s">
+      <c r="H126" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I126" s="29"/>
-      <c r="J126" s="92"/>
+      <c r="J126" s="90"/>
     </row>
     <row r="127" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="81"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="83"/>
-      <c r="E127" s="84"/>
+      <c r="A127" s="92"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="94"/>
+      <c r="E127" s="95"/>
       <c r="F127" s="40">
         <v>9</v>
       </c>
-      <c r="G127" s="93" t="s">
+      <c r="G127" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H127" s="29"/>
       <c r="I127" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J127" s="92"/>
+      <c r="J127" s="90"/>
     </row>
     <row r="128" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="81"/>
-      <c r="B128" s="82"/>
-      <c r="C128" s="82"/>
-      <c r="D128" s="83"/>
-      <c r="E128" s="84"/>
+      <c r="A128" s="92"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="95"/>
       <c r="F128" s="40">
         <v>10</v>
       </c>
-      <c r="G128" s="93" t="s">
+      <c r="G128" s="48" t="s">
         <v>193</v>
       </c>
       <c r="H128" s="29"/>
       <c r="I128" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J128" s="92"/>
+      <c r="J128" s="90"/>
     </row>
     <row r="129" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="81"/>
-      <c r="B129" s="82"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="84"/>
+      <c r="A129" s="92"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="94"/>
+      <c r="E129" s="95"/>
       <c r="F129" s="40">
         <v>11</v>
       </c>
@@ -5034,20 +5101,20 @@
       <c r="I129" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="J129" s="92"/>
+      <c r="J129" s="90"/>
     </row>
     <row r="130" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="81">
+      <c r="A130" s="92">
         <v>16</v>
       </c>
-      <c r="B130" s="82"/>
-      <c r="C130" s="82" t="s">
+      <c r="B130" s="93"/>
+      <c r="C130" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="D130" s="83" t="s">
+      <c r="D130" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E130" s="84" t="s">
+      <c r="E130" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F130" s="40">
@@ -5060,16 +5127,16 @@
       <c r="I130" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J130" s="92" t="s">
+      <c r="J130" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="81"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="84"/>
+      <c r="A131" s="92"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="94"/>
+      <c r="E131" s="95"/>
       <c r="F131" s="40">
         <v>2</v>
       </c>
@@ -5080,14 +5147,14 @@
       <c r="I131" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J131" s="92"/>
+      <c r="J131" s="90"/>
     </row>
     <row r="132" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="81"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="83"/>
-      <c r="E132" s="84"/>
+      <c r="A132" s="92"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="94"/>
+      <c r="E132" s="95"/>
       <c r="F132" s="40">
         <v>3</v>
       </c>
@@ -5098,14 +5165,14 @@
       <c r="I132" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J132" s="92"/>
+      <c r="J132" s="90"/>
     </row>
     <row r="133" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="81"/>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="84"/>
+      <c r="A133" s="92"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="95"/>
       <c r="F133" s="40">
         <v>4</v>
       </c>
@@ -5116,122 +5183,122 @@
       <c r="I133" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="J133" s="92"/>
+      <c r="J133" s="90"/>
     </row>
     <row r="134" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="81"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="83"/>
-      <c r="E134" s="84"/>
+      <c r="A134" s="92"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="94"/>
+      <c r="E134" s="95"/>
       <c r="F134" s="40">
         <v>5</v>
       </c>
-      <c r="G134" s="93" t="s">
+      <c r="G134" s="48" t="s">
         <v>167</v>
       </c>
       <c r="H134" s="29" t="s">
         <v>148</v>
       </c>
       <c r="I134" s="29"/>
-      <c r="J134" s="92"/>
+      <c r="J134" s="90"/>
     </row>
     <row r="135" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="81"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="83"/>
-      <c r="E135" s="84"/>
+      <c r="A135" s="92"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="93"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="95"/>
       <c r="F135" s="40">
         <v>6</v>
       </c>
-      <c r="G135" s="93" t="s">
+      <c r="G135" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H135" s="96" t="s">
+      <c r="H135" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I135" s="29"/>
-      <c r="J135" s="92"/>
+      <c r="J135" s="90"/>
     </row>
     <row r="136" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="81"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="82"/>
-      <c r="D136" s="83"/>
-      <c r="E136" s="84"/>
+      <c r="A136" s="92"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="94"/>
+      <c r="E136" s="95"/>
       <c r="F136" s="40">
         <v>7</v>
       </c>
-      <c r="G136" s="93" t="s">
+      <c r="G136" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H136" s="96" t="s">
+      <c r="H136" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I136" s="29"/>
-      <c r="J136" s="92"/>
+      <c r="J136" s="90"/>
     </row>
     <row r="137" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="81"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="82"/>
-      <c r="D137" s="83"/>
-      <c r="E137" s="84"/>
+      <c r="A137" s="92"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="94"/>
+      <c r="E137" s="95"/>
       <c r="F137" s="40">
         <v>8</v>
       </c>
-      <c r="G137" s="93" t="s">
+      <c r="G137" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H137" s="96" t="s">
+      <c r="H137" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I137" s="29"/>
-      <c r="J137" s="92"/>
+      <c r="J137" s="90"/>
     </row>
     <row r="138" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="81"/>
-      <c r="B138" s="82"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="83"/>
-      <c r="E138" s="84"/>
+      <c r="A138" s="92"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="95"/>
       <c r="F138" s="40">
         <v>9</v>
       </c>
-      <c r="G138" s="93" t="s">
+      <c r="G138" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H138" s="29"/>
       <c r="I138" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J138" s="92"/>
+      <c r="J138" s="90"/>
     </row>
     <row r="139" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="81"/>
-      <c r="B139" s="82"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="84"/>
+      <c r="A139" s="92"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="95"/>
       <c r="F139" s="40">
         <v>10</v>
       </c>
-      <c r="G139" s="93" t="s">
+      <c r="G139" s="48" t="s">
         <v>195</v>
       </c>
       <c r="H139" s="29"/>
       <c r="I139" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J139" s="92"/>
+      <c r="J139" s="90"/>
     </row>
     <row r="140" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="81"/>
-      <c r="B140" s="82"/>
-      <c r="C140" s="82"/>
-      <c r="D140" s="83"/>
-      <c r="E140" s="84"/>
+      <c r="A140" s="92"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="94"/>
+      <c r="E140" s="95"/>
       <c r="F140" s="40">
         <v>11</v>
       </c>
@@ -5244,20 +5311,20 @@
       <c r="I140" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="J140" s="92"/>
+      <c r="J140" s="90"/>
     </row>
     <row r="141" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="81">
+      <c r="A141" s="92">
         <v>17</v>
       </c>
-      <c r="B141" s="82"/>
-      <c r="C141" s="82" t="s">
+      <c r="B141" s="93"/>
+      <c r="C141" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D141" s="83" t="s">
+      <c r="D141" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E141" s="84" t="s">
+      <c r="E141" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F141" s="40">
@@ -5270,16 +5337,16 @@
       <c r="I141" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J141" s="92" t="s">
+      <c r="J141" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="81"/>
-      <c r="B142" s="82"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="83"/>
-      <c r="E142" s="84"/>
+      <c r="A142" s="92"/>
+      <c r="B142" s="93"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="94"/>
+      <c r="E142" s="95"/>
       <c r="F142" s="40">
         <v>2</v>
       </c>
@@ -5290,32 +5357,32 @@
       <c r="I142" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J142" s="92"/>
+      <c r="J142" s="90"/>
     </row>
     <row r="143" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="81"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="82"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="84"/>
+      <c r="A143" s="92"/>
+      <c r="B143" s="93"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="94"/>
+      <c r="E143" s="95"/>
       <c r="F143" s="40">
         <v>3</v>
       </c>
-      <c r="G143" s="93" t="s">
+      <c r="G143" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H143" s="29"/>
       <c r="I143" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J143" s="92"/>
+      <c r="J143" s="90"/>
     </row>
     <row r="144" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="81"/>
-      <c r="B144" s="82"/>
-      <c r="C144" s="82"/>
-      <c r="D144" s="83"/>
-      <c r="E144" s="84"/>
+      <c r="A144" s="92"/>
+      <c r="B144" s="93"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="94"/>
+      <c r="E144" s="95"/>
       <c r="F144" s="40">
         <v>4</v>
       </c>
@@ -5326,104 +5393,104 @@
       <c r="I144" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J144" s="92"/>
+      <c r="J144" s="90"/>
     </row>
     <row r="145" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A145" s="81"/>
-      <c r="B145" s="82"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="84"/>
+      <c r="A145" s="92"/>
+      <c r="B145" s="93"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="94"/>
+      <c r="E145" s="95"/>
       <c r="F145" s="40">
         <v>6</v>
       </c>
-      <c r="G145" s="93" t="s">
+      <c r="G145" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H145" s="96" t="s">
+      <c r="H145" s="51" t="s">
         <v>149</v>
       </c>
       <c r="I145" s="29"/>
-      <c r="J145" s="92"/>
+      <c r="J145" s="90"/>
     </row>
     <row r="146" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A146" s="81"/>
-      <c r="B146" s="82"/>
-      <c r="C146" s="82"/>
-      <c r="D146" s="83"/>
-      <c r="E146" s="84"/>
+      <c r="A146" s="92"/>
+      <c r="B146" s="93"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="94"/>
+      <c r="E146" s="95"/>
       <c r="F146" s="40">
         <v>7</v>
       </c>
-      <c r="G146" s="93" t="s">
+      <c r="G146" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H146" s="96" t="s">
+      <c r="H146" s="51" t="s">
         <v>149</v>
       </c>
       <c r="I146" s="29"/>
-      <c r="J146" s="92"/>
+      <c r="J146" s="90"/>
     </row>
     <row r="147" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="81"/>
-      <c r="B147" s="82"/>
-      <c r="C147" s="82"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="84"/>
+      <c r="A147" s="92"/>
+      <c r="B147" s="93"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="95"/>
       <c r="F147" s="40">
         <v>7</v>
       </c>
-      <c r="G147" s="93" t="s">
+      <c r="G147" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H147" s="96" t="s">
+      <c r="H147" s="51" t="s">
         <v>149</v>
       </c>
       <c r="I147" s="29"/>
-      <c r="J147" s="92"/>
+      <c r="J147" s="90"/>
     </row>
     <row r="148" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="81"/>
-      <c r="B148" s="82"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="83"/>
-      <c r="E148" s="84"/>
+      <c r="A148" s="92"/>
+      <c r="B148" s="93"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="94"/>
+      <c r="E148" s="95"/>
       <c r="F148" s="40">
         <v>9</v>
       </c>
-      <c r="G148" s="93" t="s">
+      <c r="G148" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H148" s="29"/>
       <c r="I148" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J148" s="92"/>
+      <c r="J148" s="90"/>
     </row>
     <row r="149" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="81"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="83"/>
-      <c r="E149" s="84"/>
+      <c r="A149" s="92"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="94"/>
+      <c r="E149" s="95"/>
       <c r="F149" s="40">
         <v>10</v>
       </c>
-      <c r="G149" s="93" t="s">
+      <c r="G149" s="48" t="s">
         <v>195</v>
       </c>
       <c r="H149" s="29"/>
       <c r="I149" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J149" s="92"/>
+      <c r="J149" s="90"/>
     </row>
     <row r="150" spans="1:10" s="36" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="81"/>
-      <c r="B150" s="82"/>
-      <c r="C150" s="82"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="84"/>
+      <c r="A150" s="92"/>
+      <c r="B150" s="93"/>
+      <c r="C150" s="93"/>
+      <c r="D150" s="94"/>
+      <c r="E150" s="95"/>
       <c r="F150" s="40">
         <v>11</v>
       </c>
@@ -5436,36 +5503,36 @@
       <c r="I150" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="J150" s="92"/>
+      <c r="J150" s="90"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="90" t="s">
+      <c r="A151" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B151" s="90"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="90"/>
-      <c r="E151" s="90"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
-      <c r="H151" s="90"/>
-      <c r="I151" s="90"/>
-      <c r="J151" s="97"/>
+      <c r="B151" s="91"/>
+      <c r="C151" s="91"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="91"/>
+      <c r="F151" s="91"/>
+      <c r="G151" s="91"/>
+      <c r="H151" s="91"/>
+      <c r="I151" s="91"/>
+      <c r="J151" s="52"/>
     </row>
     <row r="152" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="81">
+      <c r="A152" s="92">
         <v>18</v>
       </c>
-      <c r="B152" s="82" t="s">
+      <c r="B152" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C152" s="82" t="s">
+      <c r="C152" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="D152" s="83" t="s">
+      <c r="D152" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="E152" s="84" t="s">
+      <c r="E152" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F152" s="40">
@@ -5478,16 +5545,16 @@
       <c r="I152" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J152" s="92" t="s">
+      <c r="J152" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="81"/>
-      <c r="B153" s="82"/>
-      <c r="C153" s="82"/>
-      <c r="D153" s="83"/>
-      <c r="E153" s="84"/>
+      <c r="A153" s="92"/>
+      <c r="B153" s="93"/>
+      <c r="C153" s="93"/>
+      <c r="D153" s="94"/>
+      <c r="E153" s="95"/>
       <c r="F153" s="40">
         <v>2</v>
       </c>
@@ -5498,14 +5565,14 @@
       <c r="I153" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J153" s="92"/>
+      <c r="J153" s="90"/>
     </row>
     <row r="154" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="81"/>
-      <c r="B154" s="82"/>
-      <c r="C154" s="82"/>
-      <c r="D154" s="83"/>
-      <c r="E154" s="84"/>
+      <c r="A154" s="92"/>
+      <c r="B154" s="93"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="94"/>
+      <c r="E154" s="95"/>
       <c r="F154" s="40">
         <v>3</v>
       </c>
@@ -5514,14 +5581,14 @@
       </c>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
-      <c r="J154" s="92"/>
+      <c r="J154" s="90"/>
     </row>
     <row r="155" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="81"/>
-      <c r="B155" s="82"/>
-      <c r="C155" s="82"/>
-      <c r="D155" s="83"/>
-      <c r="E155" s="84"/>
+      <c r="A155" s="92"/>
+      <c r="B155" s="93"/>
+      <c r="C155" s="93"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="95"/>
       <c r="F155" s="40">
         <v>4</v>
       </c>
@@ -5532,22 +5599,22 @@
       <c r="I155" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="J155" s="92"/>
+      <c r="J155" s="90"/>
     </row>
     <row r="156" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="81">
+      <c r="A156" s="92">
         <v>19</v>
       </c>
-      <c r="B156" s="82" t="s">
+      <c r="B156" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C156" s="82" t="s">
+      <c r="C156" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D156" s="83" t="s">
+      <c r="D156" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="E156" s="84" t="s">
+      <c r="E156" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F156" s="40">
@@ -5560,16 +5627,16 @@
       <c r="I156" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J156" s="92" t="s">
+      <c r="J156" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="81"/>
-      <c r="B157" s="82"/>
-      <c r="C157" s="82"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="84"/>
+      <c r="A157" s="92"/>
+      <c r="B157" s="93"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="94"/>
+      <c r="E157" s="95"/>
       <c r="F157" s="40">
         <v>2</v>
       </c>
@@ -5580,14 +5647,14 @@
       <c r="I157" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J157" s="92"/>
+      <c r="J157" s="90"/>
     </row>
     <row r="158" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A158" s="81"/>
-      <c r="B158" s="82"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="84"/>
+      <c r="A158" s="92"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="93"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="95"/>
       <c r="F158" s="40">
         <v>3</v>
       </c>
@@ -5596,40 +5663,40 @@
       </c>
       <c r="H158" s="29"/>
       <c r="I158" s="29"/>
-      <c r="J158" s="92"/>
+      <c r="J158" s="90"/>
     </row>
     <row r="159" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="81"/>
-      <c r="B159" s="82"/>
-      <c r="C159" s="82"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="84"/>
+      <c r="A159" s="92"/>
+      <c r="B159" s="93"/>
+      <c r="C159" s="93"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="95"/>
       <c r="F159" s="40">
         <v>4</v>
       </c>
-      <c r="G159" s="93" t="s">
+      <c r="G159" s="48" t="s">
         <v>152</v>
       </c>
       <c r="H159" s="29"/>
       <c r="I159" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="J159" s="92"/>
+      <c r="J159" s="90"/>
     </row>
     <row r="160" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="81">
+      <c r="A160" s="92">
         <v>20</v>
       </c>
-      <c r="B160" s="82" t="s">
+      <c r="B160" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C160" s="82" t="s">
+      <c r="C160" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="D160" s="83" t="s">
+      <c r="D160" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="E160" s="84" t="s">
+      <c r="E160" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F160" s="40">
@@ -5642,16 +5709,16 @@
       <c r="I160" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J160" s="92" t="s">
+      <c r="J160" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="81"/>
-      <c r="B161" s="82"/>
-      <c r="C161" s="82"/>
-      <c r="D161" s="83"/>
-      <c r="E161" s="84"/>
+      <c r="A161" s="92"/>
+      <c r="B161" s="93"/>
+      <c r="C161" s="93"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="95"/>
       <c r="F161" s="40">
         <v>2</v>
       </c>
@@ -5662,14 +5729,14 @@
       <c r="I161" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J161" s="92"/>
+      <c r="J161" s="90"/>
     </row>
     <row r="162" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="81"/>
-      <c r="B162" s="82"/>
-      <c r="C162" s="82"/>
-      <c r="D162" s="83"/>
-      <c r="E162" s="84"/>
+      <c r="A162" s="92"/>
+      <c r="B162" s="93"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="94"/>
+      <c r="E162" s="95"/>
       <c r="F162" s="40">
         <v>3</v>
       </c>
@@ -5680,14 +5747,14 @@
       <c r="I162" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J162" s="92"/>
+      <c r="J162" s="90"/>
     </row>
     <row r="163" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A163" s="81"/>
-      <c r="B163" s="82"/>
-      <c r="C163" s="82"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="84"/>
+      <c r="A163" s="92"/>
+      <c r="B163" s="93"/>
+      <c r="C163" s="93"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="95"/>
       <c r="F163" s="40">
         <v>4</v>
       </c>
@@ -5698,128 +5765,128 @@
       <c r="I163" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J163" s="92"/>
+      <c r="J163" s="90"/>
     </row>
     <row r="164" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A164" s="81"/>
-      <c r="B164" s="82"/>
-      <c r="C164" s="82"/>
-      <c r="D164" s="83"/>
-      <c r="E164" s="84"/>
+      <c r="A164" s="92"/>
+      <c r="B164" s="93"/>
+      <c r="C164" s="93"/>
+      <c r="D164" s="94"/>
+      <c r="E164" s="95"/>
       <c r="F164" s="40">
         <v>5</v>
       </c>
-      <c r="G164" s="93" t="s">
+      <c r="G164" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="H164" s="94" t="s">
+      <c r="H164" s="49" t="s">
         <v>119</v>
       </c>
       <c r="I164" s="29"/>
-      <c r="J164" s="92"/>
+      <c r="J164" s="90"/>
     </row>
     <row r="165" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A165" s="81"/>
-      <c r="B165" s="82"/>
-      <c r="C165" s="82"/>
-      <c r="D165" s="83"/>
-      <c r="E165" s="84"/>
+      <c r="A165" s="92"/>
+      <c r="B165" s="93"/>
+      <c r="C165" s="93"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="95"/>
       <c r="F165" s="40">
         <v>6</v>
       </c>
-      <c r="G165" s="93" t="s">
+      <c r="G165" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H165" s="91" t="s">
+      <c r="H165" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I165" s="29"/>
-      <c r="J165" s="92"/>
+      <c r="J165" s="90"/>
     </row>
     <row r="166" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="81"/>
-      <c r="B166" s="82"/>
-      <c r="C166" s="82"/>
-      <c r="D166" s="83"/>
-      <c r="E166" s="84"/>
+      <c r="A166" s="92"/>
+      <c r="B166" s="93"/>
+      <c r="C166" s="93"/>
+      <c r="D166" s="94"/>
+      <c r="E166" s="95"/>
       <c r="F166" s="40">
         <v>7</v>
       </c>
-      <c r="G166" s="93" t="s">
+      <c r="G166" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H166" s="29">
         <v>2016</v>
       </c>
       <c r="I166" s="29"/>
-      <c r="J166" s="92"/>
+      <c r="J166" s="90"/>
     </row>
     <row r="167" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="81"/>
-      <c r="B167" s="82"/>
-      <c r="C167" s="82"/>
-      <c r="D167" s="83"/>
-      <c r="E167" s="84"/>
+      <c r="A167" s="92"/>
+      <c r="B167" s="93"/>
+      <c r="C167" s="93"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="95"/>
       <c r="F167" s="40">
         <v>8</v>
       </c>
-      <c r="G167" s="93" t="s">
+      <c r="G167" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H167" s="91" t="s">
+      <c r="H167" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I167" s="29"/>
-      <c r="J167" s="92"/>
+      <c r="J167" s="90"/>
     </row>
     <row r="168" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="81"/>
-      <c r="B168" s="82"/>
-      <c r="C168" s="82"/>
-      <c r="D168" s="83"/>
-      <c r="E168" s="84"/>
+      <c r="A168" s="92"/>
+      <c r="B168" s="93"/>
+      <c r="C168" s="93"/>
+      <c r="D168" s="94"/>
+      <c r="E168" s="95"/>
       <c r="F168" s="40">
         <v>9</v>
       </c>
-      <c r="G168" s="93" t="s">
+      <c r="G168" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H168" s="91" t="s">
+      <c r="H168" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I168" s="29"/>
-      <c r="J168" s="92"/>
+      <c r="J168" s="90"/>
     </row>
     <row r="169" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="81"/>
-      <c r="B169" s="82"/>
-      <c r="C169" s="82"/>
-      <c r="D169" s="83"/>
-      <c r="E169" s="84"/>
+      <c r="A169" s="92"/>
+      <c r="B169" s="93"/>
+      <c r="C169" s="93"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="95"/>
       <c r="F169" s="40">
         <v>10</v>
       </c>
-      <c r="G169" s="93" t="s">
+      <c r="G169" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H169" s="29"/>
-      <c r="I169" s="91" t="s">
+      <c r="I169" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="J169" s="92"/>
+      <c r="J169" s="90"/>
     </row>
     <row r="170" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="81">
+      <c r="A170" s="92">
         <v>21</v>
       </c>
-      <c r="B170" s="82"/>
-      <c r="C170" s="82" t="s">
+      <c r="B170" s="93"/>
+      <c r="C170" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="D170" s="83" t="s">
+      <c r="D170" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="E170" s="84" t="s">
+      <c r="E170" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F170" s="40">
@@ -5829,19 +5896,19 @@
         <v>137</v>
       </c>
       <c r="H170" s="29"/>
-      <c r="I170" s="91" t="s">
+      <c r="I170" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J170" s="92" t="s">
+      <c r="J170" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="81"/>
-      <c r="B171" s="82"/>
-      <c r="C171" s="82"/>
-      <c r="D171" s="83"/>
-      <c r="E171" s="84"/>
+      <c r="A171" s="92"/>
+      <c r="B171" s="93"/>
+      <c r="C171" s="93"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="95"/>
       <c r="F171" s="40">
         <v>2</v>
       </c>
@@ -5852,14 +5919,14 @@
       <c r="I171" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J171" s="92"/>
+      <c r="J171" s="90"/>
     </row>
     <row r="172" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="81"/>
-      <c r="B172" s="82"/>
-      <c r="C172" s="82"/>
-      <c r="D172" s="83"/>
-      <c r="E172" s="84"/>
+      <c r="A172" s="92"/>
+      <c r="B172" s="93"/>
+      <c r="C172" s="93"/>
+      <c r="D172" s="94"/>
+      <c r="E172" s="95"/>
       <c r="F172" s="40">
         <v>3</v>
       </c>
@@ -5870,14 +5937,14 @@
       <c r="I172" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J172" s="92"/>
+      <c r="J172" s="90"/>
     </row>
     <row r="173" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="81"/>
-      <c r="B173" s="82"/>
-      <c r="C173" s="82"/>
-      <c r="D173" s="83"/>
-      <c r="E173" s="84"/>
+      <c r="A173" s="92"/>
+      <c r="B173" s="93"/>
+      <c r="C173" s="93"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="95"/>
       <c r="F173" s="40">
         <v>4</v>
       </c>
@@ -5888,110 +5955,110 @@
       <c r="I173" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="J173" s="92"/>
+      <c r="J173" s="90"/>
     </row>
     <row r="174" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A174" s="81"/>
-      <c r="B174" s="82"/>
-      <c r="C174" s="82"/>
-      <c r="D174" s="83"/>
-      <c r="E174" s="84"/>
+      <c r="A174" s="92"/>
+      <c r="B174" s="93"/>
+      <c r="C174" s="93"/>
+      <c r="D174" s="94"/>
+      <c r="E174" s="95"/>
       <c r="F174" s="40">
         <v>5</v>
       </c>
       <c r="G174" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H174" s="91" t="s">
+      <c r="H174" s="47" t="s">
         <v>119</v>
       </c>
       <c r="I174" s="29"/>
-      <c r="J174" s="92"/>
+      <c r="J174" s="90"/>
     </row>
     <row r="175" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="81"/>
-      <c r="B175" s="82"/>
-      <c r="C175" s="82"/>
-      <c r="D175" s="83"/>
-      <c r="E175" s="84"/>
+      <c r="A175" s="92"/>
+      <c r="B175" s="93"/>
+      <c r="C175" s="93"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="95"/>
       <c r="F175" s="40">
         <v>6</v>
       </c>
-      <c r="G175" s="93" t="s">
+      <c r="G175" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H175" s="29">
         <v>2019</v>
       </c>
       <c r="I175" s="29"/>
-      <c r="J175" s="92"/>
+      <c r="J175" s="90"/>
     </row>
     <row r="176" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A176" s="81"/>
-      <c r="B176" s="82"/>
-      <c r="C176" s="82"/>
-      <c r="D176" s="83"/>
-      <c r="E176" s="84"/>
+      <c r="A176" s="92"/>
+      <c r="B176" s="93"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="94"/>
+      <c r="E176" s="95"/>
       <c r="F176" s="40">
         <v>7</v>
       </c>
-      <c r="G176" s="93" t="s">
+      <c r="G176" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H176" s="91" t="s">
+      <c r="H176" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I176" s="29"/>
-      <c r="J176" s="92"/>
+      <c r="J176" s="90"/>
     </row>
     <row r="177" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A177" s="81"/>
-      <c r="B177" s="82"/>
-      <c r="C177" s="82"/>
-      <c r="D177" s="83"/>
-      <c r="E177" s="84"/>
+      <c r="A177" s="92"/>
+      <c r="B177" s="93"/>
+      <c r="C177" s="93"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="95"/>
       <c r="F177" s="40">
         <v>8</v>
       </c>
-      <c r="G177" s="93" t="s">
+      <c r="G177" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H177" s="91" t="s">
+      <c r="H177" s="47" t="s">
         <v>122</v>
       </c>
       <c r="I177" s="29"/>
-      <c r="J177" s="92"/>
+      <c r="J177" s="90"/>
     </row>
     <row r="178" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A178" s="81"/>
-      <c r="B178" s="82"/>
-      <c r="C178" s="82"/>
-      <c r="D178" s="83"/>
-      <c r="E178" s="84"/>
+      <c r="A178" s="92"/>
+      <c r="B178" s="93"/>
+      <c r="C178" s="93"/>
+      <c r="D178" s="94"/>
+      <c r="E178" s="95"/>
       <c r="F178" s="40">
         <v>9</v>
       </c>
-      <c r="G178" s="93" t="s">
+      <c r="G178" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H178" s="29"/>
       <c r="I178" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="J178" s="92"/>
+      <c r="J178" s="90"/>
     </row>
     <row r="179" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="81">
+      <c r="A179" s="92">
         <v>22</v>
       </c>
-      <c r="B179" s="82"/>
-      <c r="C179" s="82" t="s">
+      <c r="B179" s="93"/>
+      <c r="C179" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="D179" s="83" t="s">
+      <c r="D179" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="E179" s="84" t="s">
+      <c r="E179" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F179" s="40">
@@ -6004,16 +6071,16 @@
       <c r="I179" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J179" s="92" t="s">
+      <c r="J179" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="180" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="81"/>
-      <c r="B180" s="82"/>
-      <c r="C180" s="82"/>
-      <c r="D180" s="83"/>
-      <c r="E180" s="84"/>
+      <c r="A180" s="92"/>
+      <c r="B180" s="93"/>
+      <c r="C180" s="93"/>
+      <c r="D180" s="94"/>
+      <c r="E180" s="95"/>
       <c r="F180" s="40">
         <v>2</v>
       </c>
@@ -6024,14 +6091,14 @@
       <c r="I180" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J180" s="92"/>
+      <c r="J180" s="90"/>
     </row>
     <row r="181" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="81"/>
-      <c r="B181" s="82"/>
-      <c r="C181" s="82"/>
-      <c r="D181" s="83"/>
-      <c r="E181" s="84"/>
+      <c r="A181" s="92"/>
+      <c r="B181" s="93"/>
+      <c r="C181" s="93"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="95"/>
       <c r="F181" s="40">
         <v>3</v>
       </c>
@@ -6042,14 +6109,14 @@
       <c r="I181" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J181" s="92"/>
+      <c r="J181" s="90"/>
     </row>
     <row r="182" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="81"/>
-      <c r="B182" s="82"/>
-      <c r="C182" s="82"/>
-      <c r="D182" s="83"/>
-      <c r="E182" s="84"/>
+      <c r="A182" s="92"/>
+      <c r="B182" s="93"/>
+      <c r="C182" s="93"/>
+      <c r="D182" s="94"/>
+      <c r="E182" s="95"/>
       <c r="F182" s="40">
         <v>4</v>
       </c>
@@ -6060,14 +6127,14 @@
       <c r="I182" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J182" s="92"/>
+      <c r="J182" s="90"/>
     </row>
     <row r="183" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="81"/>
-      <c r="B183" s="82"/>
-      <c r="C183" s="82"/>
-      <c r="D183" s="83"/>
-      <c r="E183" s="84"/>
+      <c r="A183" s="92"/>
+      <c r="B183" s="93"/>
+      <c r="C183" s="93"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="95"/>
       <c r="F183" s="40">
         <v>6</v>
       </c>
@@ -6078,14 +6145,14 @@
         <v>2019</v>
       </c>
       <c r="I183" s="29"/>
-      <c r="J183" s="92"/>
+      <c r="J183" s="90"/>
     </row>
     <row r="184" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A184" s="81"/>
-      <c r="B184" s="82"/>
-      <c r="C184" s="82"/>
-      <c r="D184" s="83"/>
-      <c r="E184" s="84"/>
+      <c r="A184" s="92"/>
+      <c r="B184" s="93"/>
+      <c r="C184" s="93"/>
+      <c r="D184" s="94"/>
+      <c r="E184" s="95"/>
       <c r="F184" s="40">
         <v>7</v>
       </c>
@@ -6096,14 +6163,14 @@
         <v>2</v>
       </c>
       <c r="I184" s="29"/>
-      <c r="J184" s="92"/>
+      <c r="J184" s="90"/>
     </row>
     <row r="185" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="81"/>
-      <c r="B185" s="82"/>
-      <c r="C185" s="82"/>
-      <c r="D185" s="83"/>
-      <c r="E185" s="84"/>
+      <c r="A185" s="92"/>
+      <c r="B185" s="93"/>
+      <c r="C185" s="93"/>
+      <c r="D185" s="94"/>
+      <c r="E185" s="95"/>
       <c r="F185" s="40">
         <v>7</v>
       </c>
@@ -6114,14 +6181,14 @@
         <v>2</v>
       </c>
       <c r="I185" s="29"/>
-      <c r="J185" s="92"/>
+      <c r="J185" s="90"/>
     </row>
     <row r="186" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="81"/>
-      <c r="B186" s="82"/>
-      <c r="C186" s="82"/>
-      <c r="D186" s="83"/>
-      <c r="E186" s="84"/>
+      <c r="A186" s="92"/>
+      <c r="B186" s="93"/>
+      <c r="C186" s="93"/>
+      <c r="D186" s="94"/>
+      <c r="E186" s="95"/>
       <c r="F186" s="40">
         <v>8</v>
       </c>
@@ -6132,22 +6199,22 @@
       <c r="I186" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="J186" s="92"/>
+      <c r="J186" s="90"/>
     </row>
     <row r="187" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="81">
+      <c r="A187" s="92">
         <v>23</v>
       </c>
-      <c r="B187" s="82" t="s">
+      <c r="B187" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="C187" s="82" t="s">
+      <c r="C187" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D187" s="83" t="s">
+      <c r="D187" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E187" s="84" t="s">
+      <c r="E187" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F187" s="40">
@@ -6160,16 +6227,16 @@
       <c r="I187" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J187" s="92" t="s">
+      <c r="J187" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="188" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="81"/>
-      <c r="B188" s="82"/>
-      <c r="C188" s="82"/>
-      <c r="D188" s="83"/>
-      <c r="E188" s="84"/>
+      <c r="A188" s="92"/>
+      <c r="B188" s="93"/>
+      <c r="C188" s="93"/>
+      <c r="D188" s="94"/>
+      <c r="E188" s="95"/>
       <c r="F188" s="40">
         <v>2</v>
       </c>
@@ -6180,14 +6247,14 @@
       <c r="I188" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J188" s="92"/>
+      <c r="J188" s="90"/>
     </row>
     <row r="189" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="81"/>
-      <c r="B189" s="82"/>
-      <c r="C189" s="82"/>
-      <c r="D189" s="83"/>
-      <c r="E189" s="84"/>
+      <c r="A189" s="92"/>
+      <c r="B189" s="93"/>
+      <c r="C189" s="93"/>
+      <c r="D189" s="94"/>
+      <c r="E189" s="95"/>
       <c r="F189" s="40">
         <v>3</v>
       </c>
@@ -6198,14 +6265,14 @@
       <c r="I189" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J189" s="92"/>
+      <c r="J189" s="90"/>
     </row>
     <row r="190" spans="1:10" s="36" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A190" s="81"/>
-      <c r="B190" s="82"/>
-      <c r="C190" s="82"/>
-      <c r="D190" s="83"/>
-      <c r="E190" s="84"/>
+      <c r="A190" s="92"/>
+      <c r="B190" s="93"/>
+      <c r="C190" s="93"/>
+      <c r="D190" s="94"/>
+      <c r="E190" s="95"/>
       <c r="F190" s="40">
         <v>4</v>
       </c>
@@ -6216,104 +6283,104 @@
       <c r="I190" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J190" s="92"/>
+      <c r="J190" s="90"/>
     </row>
     <row r="191" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A191" s="81"/>
-      <c r="B191" s="82"/>
-      <c r="C191" s="82"/>
-      <c r="D191" s="83"/>
-      <c r="E191" s="84"/>
+      <c r="A191" s="92"/>
+      <c r="B191" s="93"/>
+      <c r="C191" s="93"/>
+      <c r="D191" s="94"/>
+      <c r="E191" s="95"/>
       <c r="F191" s="40">
         <v>6</v>
       </c>
       <c r="G191" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H191" s="94" t="s">
+      <c r="H191" s="49" t="s">
         <v>119</v>
       </c>
       <c r="I191" s="29"/>
-      <c r="J191" s="92"/>
+      <c r="J191" s="90"/>
     </row>
     <row r="192" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A192" s="81"/>
-      <c r="B192" s="82"/>
-      <c r="C192" s="82"/>
-      <c r="D192" s="83"/>
-      <c r="E192" s="84"/>
+      <c r="A192" s="92"/>
+      <c r="B192" s="93"/>
+      <c r="C192" s="93"/>
+      <c r="D192" s="94"/>
+      <c r="E192" s="95"/>
       <c r="F192" s="40">
         <v>7</v>
       </c>
       <c r="G192" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="H192" s="91" t="s">
+      <c r="H192" s="47" t="s">
         <v>120</v>
       </c>
       <c r="I192" s="29"/>
-      <c r="J192" s="92"/>
+      <c r="J192" s="90"/>
     </row>
     <row r="193" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A193" s="81"/>
-      <c r="B193" s="82"/>
-      <c r="C193" s="82"/>
-      <c r="D193" s="83"/>
-      <c r="E193" s="84"/>
+      <c r="A193" s="92"/>
+      <c r="B193" s="93"/>
+      <c r="C193" s="93"/>
+      <c r="D193" s="94"/>
+      <c r="E193" s="95"/>
       <c r="F193" s="40">
         <v>6</v>
       </c>
       <c r="G193" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="H193" s="96" t="s">
+      <c r="H193" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I193" s="29"/>
-      <c r="J193" s="92"/>
+      <c r="J193" s="90"/>
     </row>
     <row r="194" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A194" s="81"/>
-      <c r="B194" s="82"/>
-      <c r="C194" s="82"/>
-      <c r="D194" s="83"/>
-      <c r="E194" s="84"/>
+      <c r="A194" s="92"/>
+      <c r="B194" s="93"/>
+      <c r="C194" s="93"/>
+      <c r="D194" s="94"/>
+      <c r="E194" s="95"/>
       <c r="F194" s="40">
         <v>7</v>
       </c>
       <c r="G194" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="H194" s="96" t="s">
+      <c r="H194" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I194" s="29"/>
-      <c r="J194" s="92"/>
+      <c r="J194" s="90"/>
     </row>
     <row r="195" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A195" s="81"/>
-      <c r="B195" s="82"/>
-      <c r="C195" s="82"/>
-      <c r="D195" s="83"/>
-      <c r="E195" s="84"/>
+      <c r="A195" s="92"/>
+      <c r="B195" s="93"/>
+      <c r="C195" s="93"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="95"/>
       <c r="F195" s="40">
         <v>8</v>
       </c>
       <c r="G195" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="H195" s="96" t="s">
+      <c r="H195" s="51" t="s">
         <v>131</v>
       </c>
       <c r="I195" s="29"/>
-      <c r="J195" s="92"/>
+      <c r="J195" s="90"/>
     </row>
     <row r="196" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="81"/>
-      <c r="B196" s="82"/>
-      <c r="C196" s="82"/>
-      <c r="D196" s="83"/>
-      <c r="E196" s="84"/>
+      <c r="A196" s="92"/>
+      <c r="B196" s="93"/>
+      <c r="C196" s="93"/>
+      <c r="D196" s="94"/>
+      <c r="E196" s="95"/>
       <c r="F196" s="40">
         <v>9</v>
       </c>
@@ -6324,14 +6391,14 @@
       <c r="I196" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J196" s="92"/>
+      <c r="J196" s="90"/>
     </row>
     <row r="197" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="81"/>
-      <c r="B197" s="82"/>
-      <c r="C197" s="82"/>
-      <c r="D197" s="83"/>
-      <c r="E197" s="84"/>
+      <c r="A197" s="92"/>
+      <c r="B197" s="93"/>
+      <c r="C197" s="93"/>
+      <c r="D197" s="94"/>
+      <c r="E197" s="95"/>
       <c r="F197" s="40">
         <v>10</v>
       </c>
@@ -6342,20 +6409,20 @@
       <c r="I197" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J197" s="92"/>
+      <c r="J197" s="90"/>
     </row>
     <row r="198" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="81">
+      <c r="A198" s="92">
         <v>24</v>
       </c>
-      <c r="B198" s="82"/>
-      <c r="C198" s="82" t="s">
+      <c r="B198" s="93"/>
+      <c r="C198" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="D198" s="83" t="s">
+      <c r="D198" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E198" s="84" t="s">
+      <c r="E198" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F198" s="40">
@@ -6368,16 +6435,16 @@
       <c r="I198" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J198" s="92" t="s">
+      <c r="J198" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="81"/>
-      <c r="B199" s="82"/>
-      <c r="C199" s="82"/>
-      <c r="D199" s="83"/>
-      <c r="E199" s="84"/>
+      <c r="A199" s="92"/>
+      <c r="B199" s="93"/>
+      <c r="C199" s="93"/>
+      <c r="D199" s="94"/>
+      <c r="E199" s="95"/>
       <c r="F199" s="40">
         <v>2</v>
       </c>
@@ -6388,14 +6455,14 @@
       <c r="I199" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J199" s="92"/>
+      <c r="J199" s="90"/>
     </row>
     <row r="200" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A200" s="81"/>
-      <c r="B200" s="82"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="83"/>
-      <c r="E200" s="84"/>
+      <c r="A200" s="92"/>
+      <c r="B200" s="93"/>
+      <c r="C200" s="93"/>
+      <c r="D200" s="94"/>
+      <c r="E200" s="95"/>
       <c r="F200" s="40">
         <v>3</v>
       </c>
@@ -6406,14 +6473,14 @@
       <c r="I200" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J200" s="92"/>
+      <c r="J200" s="90"/>
     </row>
     <row r="201" spans="1:10" s="36" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="81"/>
-      <c r="B201" s="82"/>
-      <c r="C201" s="82"/>
-      <c r="D201" s="83"/>
-      <c r="E201" s="84"/>
+      <c r="A201" s="92"/>
+      <c r="B201" s="93"/>
+      <c r="C201" s="93"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="95"/>
       <c r="F201" s="40">
         <v>4</v>
       </c>
@@ -6424,14 +6491,14 @@
       <c r="I201" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="J201" s="92"/>
+      <c r="J201" s="90"/>
     </row>
     <row r="202" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A202" s="81"/>
-      <c r="B202" s="82"/>
-      <c r="C202" s="82"/>
-      <c r="D202" s="83"/>
-      <c r="E202" s="84"/>
+      <c r="A202" s="92"/>
+      <c r="B202" s="93"/>
+      <c r="C202" s="93"/>
+      <c r="D202" s="94"/>
+      <c r="E202" s="95"/>
       <c r="F202" s="40">
         <v>5</v>
       </c>
@@ -6442,110 +6509,110 @@
         <v>74</v>
       </c>
       <c r="I202" s="29"/>
-      <c r="J202" s="92"/>
+      <c r="J202" s="90"/>
     </row>
     <row r="203" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A203" s="81"/>
-      <c r="B203" s="82"/>
-      <c r="C203" s="82"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="84"/>
+      <c r="A203" s="92"/>
+      <c r="B203" s="93"/>
+      <c r="C203" s="93"/>
+      <c r="D203" s="94"/>
+      <c r="E203" s="95"/>
       <c r="F203" s="40">
         <v>6</v>
       </c>
-      <c r="G203" s="93" t="s">
+      <c r="G203" s="48" t="s">
         <v>171</v>
       </c>
       <c r="H203" s="41" t="s">
         <v>161</v>
       </c>
       <c r="I203" s="29"/>
-      <c r="J203" s="92"/>
+      <c r="J203" s="90"/>
     </row>
     <row r="204" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A204" s="81"/>
-      <c r="B204" s="82"/>
-      <c r="C204" s="82"/>
-      <c r="D204" s="83"/>
-      <c r="E204" s="84"/>
+      <c r="A204" s="92"/>
+      <c r="B204" s="93"/>
+      <c r="C204" s="93"/>
+      <c r="D204" s="94"/>
+      <c r="E204" s="95"/>
       <c r="F204" s="40">
         <v>7</v>
       </c>
-      <c r="G204" s="93" t="s">
+      <c r="G204" s="48" t="s">
         <v>173</v>
       </c>
       <c r="H204" s="41" t="s">
         <v>161</v>
       </c>
       <c r="I204" s="29"/>
-      <c r="J204" s="92"/>
+      <c r="J204" s="90"/>
     </row>
     <row r="205" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A205" s="81"/>
-      <c r="B205" s="82"/>
-      <c r="C205" s="82"/>
-      <c r="D205" s="83"/>
-      <c r="E205" s="84"/>
+      <c r="A205" s="92"/>
+      <c r="B205" s="93"/>
+      <c r="C205" s="93"/>
+      <c r="D205" s="94"/>
+      <c r="E205" s="95"/>
       <c r="F205" s="40">
         <v>8</v>
       </c>
-      <c r="G205" s="93" t="s">
+      <c r="G205" s="48" t="s">
         <v>175</v>
       </c>
       <c r="H205" s="41" t="s">
         <v>161</v>
       </c>
       <c r="I205" s="29"/>
-      <c r="J205" s="92"/>
+      <c r="J205" s="90"/>
     </row>
     <row r="206" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="81"/>
-      <c r="B206" s="82"/>
-      <c r="C206" s="82"/>
-      <c r="D206" s="83"/>
-      <c r="E206" s="84"/>
+      <c r="A206" s="92"/>
+      <c r="B206" s="93"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="94"/>
+      <c r="E206" s="95"/>
       <c r="F206" s="40">
         <v>9</v>
       </c>
-      <c r="G206" s="93" t="s">
+      <c r="G206" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H206" s="29"/>
       <c r="I206" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J206" s="92"/>
+      <c r="J206" s="90"/>
     </row>
     <row r="207" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="81"/>
-      <c r="B207" s="82"/>
-      <c r="C207" s="82"/>
-      <c r="D207" s="83"/>
-      <c r="E207" s="84"/>
+      <c r="A207" s="92"/>
+      <c r="B207" s="93"/>
+      <c r="C207" s="93"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="95"/>
       <c r="F207" s="40">
         <v>10</v>
       </c>
-      <c r="G207" s="93" t="s">
+      <c r="G207" s="48" t="s">
         <v>195</v>
       </c>
       <c r="H207" s="29"/>
       <c r="I207" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J207" s="92"/>
+      <c r="J207" s="90"/>
     </row>
     <row r="208" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="81">
+      <c r="A208" s="92">
         <v>25</v>
       </c>
-      <c r="B208" s="82"/>
-      <c r="C208" s="82" t="s">
+      <c r="B208" s="93"/>
+      <c r="C208" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="D208" s="83" t="s">
+      <c r="D208" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="E208" s="84" t="s">
+      <c r="E208" s="95" t="s">
         <v>110</v>
       </c>
       <c r="F208" s="40">
@@ -6558,16 +6625,16 @@
       <c r="I208" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="J208" s="92" t="s">
+      <c r="J208" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="209" spans="1:10" s="34" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="81"/>
-      <c r="B209" s="82"/>
-      <c r="C209" s="82"/>
-      <c r="D209" s="83"/>
-      <c r="E209" s="84"/>
+      <c r="A209" s="92"/>
+      <c r="B209" s="93"/>
+      <c r="C209" s="93"/>
+      <c r="D209" s="94"/>
+      <c r="E209" s="95"/>
       <c r="F209" s="40">
         <v>2</v>
       </c>
@@ -6578,14 +6645,14 @@
       <c r="I209" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J209" s="92"/>
+      <c r="J209" s="90"/>
     </row>
     <row r="210" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="81"/>
-      <c r="B210" s="82"/>
-      <c r="C210" s="82"/>
-      <c r="D210" s="83"/>
-      <c r="E210" s="84"/>
+      <c r="A210" s="92"/>
+      <c r="B210" s="93"/>
+      <c r="C210" s="93"/>
+      <c r="D210" s="94"/>
+      <c r="E210" s="95"/>
       <c r="F210" s="40">
         <v>3</v>
       </c>
@@ -6596,14 +6663,14 @@
       <c r="I210" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="J210" s="92"/>
+      <c r="J210" s="90"/>
     </row>
     <row r="211" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="81"/>
-      <c r="B211" s="82"/>
-      <c r="C211" s="82"/>
-      <c r="D211" s="83"/>
-      <c r="E211" s="84"/>
+      <c r="A211" s="92"/>
+      <c r="B211" s="93"/>
+      <c r="C211" s="93"/>
+      <c r="D211" s="94"/>
+      <c r="E211" s="95"/>
       <c r="F211" s="40">
         <v>4</v>
       </c>
@@ -6614,133 +6681,180 @@
       <c r="I211" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J211" s="92"/>
+      <c r="J211" s="90"/>
     </row>
     <row r="212" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A212" s="81"/>
-      <c r="B212" s="82"/>
-      <c r="C212" s="82"/>
-      <c r="D212" s="83"/>
-      <c r="E212" s="84"/>
+      <c r="A212" s="92"/>
+      <c r="B212" s="93"/>
+      <c r="C212" s="93"/>
+      <c r="D212" s="94"/>
+      <c r="E212" s="95"/>
       <c r="F212" s="40">
         <v>6</v>
       </c>
-      <c r="G212" s="93" t="s">
+      <c r="G212" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H212" s="96" t="s">
+      <c r="H212" s="51" t="s">
         <v>149</v>
       </c>
       <c r="I212" s="29"/>
-      <c r="J212" s="92"/>
+      <c r="J212" s="90"/>
     </row>
     <row r="213" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A213" s="81"/>
-      <c r="B213" s="82"/>
-      <c r="C213" s="82"/>
-      <c r="D213" s="83"/>
-      <c r="E213" s="84"/>
+      <c r="A213" s="92"/>
+      <c r="B213" s="93"/>
+      <c r="C213" s="93"/>
+      <c r="D213" s="94"/>
+      <c r="E213" s="95"/>
       <c r="F213" s="40">
         <v>7</v>
       </c>
-      <c r="G213" s="93" t="s">
+      <c r="G213" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="H213" s="96" t="s">
+      <c r="H213" s="51" t="s">
         <v>149</v>
       </c>
       <c r="I213" s="29"/>
-      <c r="J213" s="92"/>
+      <c r="J213" s="90"/>
     </row>
     <row r="214" spans="1:10" s="36" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A214" s="81"/>
-      <c r="B214" s="82"/>
-      <c r="C214" s="82"/>
-      <c r="D214" s="83"/>
-      <c r="E214" s="84"/>
+      <c r="A214" s="92"/>
+      <c r="B214" s="93"/>
+      <c r="C214" s="93"/>
+      <c r="D214" s="94"/>
+      <c r="E214" s="95"/>
       <c r="F214" s="40">
         <v>7</v>
       </c>
-      <c r="G214" s="93" t="s">
+      <c r="G214" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H214" s="96" t="s">
+      <c r="H214" s="51" t="s">
         <v>149</v>
       </c>
       <c r="I214" s="29"/>
-      <c r="J214" s="92"/>
+      <c r="J214" s="90"/>
     </row>
     <row r="215" spans="1:10" s="36" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="81"/>
-      <c r="B215" s="82"/>
-      <c r="C215" s="82"/>
-      <c r="D215" s="83"/>
-      <c r="E215" s="84"/>
+      <c r="A215" s="92"/>
+      <c r="B215" s="93"/>
+      <c r="C215" s="93"/>
+      <c r="D215" s="94"/>
+      <c r="E215" s="95"/>
       <c r="F215" s="40">
         <v>9</v>
       </c>
-      <c r="G215" s="93" t="s">
+      <c r="G215" s="48" t="s">
         <v>178</v>
       </c>
       <c r="H215" s="29"/>
       <c r="I215" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J215" s="92"/>
+      <c r="J215" s="90"/>
     </row>
     <row r="216" spans="1:10" s="36" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="86"/>
-      <c r="B216" s="85"/>
-      <c r="C216" s="85"/>
-      <c r="D216" s="87"/>
-      <c r="E216" s="88"/>
+      <c r="A216" s="99"/>
+      <c r="B216" s="98"/>
+      <c r="C216" s="98"/>
+      <c r="D216" s="100"/>
+      <c r="E216" s="101"/>
       <c r="F216" s="45">
         <v>10</v>
       </c>
-      <c r="G216" s="98" t="s">
+      <c r="G216" s="53" t="s">
         <v>195</v>
       </c>
       <c r="H216" s="46"/>
       <c r="I216" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="J216" s="99"/>
+      <c r="J216" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="J156:J159"/>
-    <mergeCell ref="A151:I151"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="D101:D109"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="E156:E159"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="E110:E117"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="E43:E52"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="C53:C61"/>
-    <mergeCell ref="D53:D61"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="B43:B61"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="J208:J216"/>
+    <mergeCell ref="J187:J197"/>
+    <mergeCell ref="A198:A207"/>
+    <mergeCell ref="C198:C207"/>
+    <mergeCell ref="D198:D207"/>
+    <mergeCell ref="E198:E207"/>
+    <mergeCell ref="J198:J207"/>
+    <mergeCell ref="A187:A197"/>
+    <mergeCell ref="B187:B216"/>
+    <mergeCell ref="C187:C197"/>
+    <mergeCell ref="D187:D197"/>
+    <mergeCell ref="E187:E197"/>
+    <mergeCell ref="A208:A216"/>
+    <mergeCell ref="C208:C216"/>
+    <mergeCell ref="D208:D216"/>
+    <mergeCell ref="E208:E216"/>
+    <mergeCell ref="J179:J186"/>
+    <mergeCell ref="A118:A129"/>
+    <mergeCell ref="B118:B150"/>
+    <mergeCell ref="C118:C129"/>
+    <mergeCell ref="D118:D129"/>
+    <mergeCell ref="E118:E129"/>
+    <mergeCell ref="J118:J129"/>
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="C130:C140"/>
+    <mergeCell ref="D130:D140"/>
+    <mergeCell ref="E130:E140"/>
+    <mergeCell ref="J130:J140"/>
+    <mergeCell ref="A141:A150"/>
+    <mergeCell ref="C141:C150"/>
+    <mergeCell ref="D141:D150"/>
+    <mergeCell ref="E141:E150"/>
+    <mergeCell ref="J160:J169"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="C170:C178"/>
+    <mergeCell ref="D170:D178"/>
+    <mergeCell ref="E170:E178"/>
+    <mergeCell ref="J170:J178"/>
+    <mergeCell ref="A160:A169"/>
+    <mergeCell ref="B160:B186"/>
+    <mergeCell ref="C160:C169"/>
+    <mergeCell ref="D160:D169"/>
+    <mergeCell ref="E160:E169"/>
+    <mergeCell ref="A179:A186"/>
+    <mergeCell ref="C179:C186"/>
+    <mergeCell ref="D179:D186"/>
+    <mergeCell ref="E179:E186"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="B16:B42"/>
+    <mergeCell ref="B91:B117"/>
+    <mergeCell ref="C91:C100"/>
+    <mergeCell ref="D91:D100"/>
+    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="C110:C117"/>
+    <mergeCell ref="D110:D117"/>
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A91:A100"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="B62:B90"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="C72:C81"/>
+    <mergeCell ref="D72:D81"/>
+    <mergeCell ref="E72:E81"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="E62:E71"/>
+    <mergeCell ref="J110:J117"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="J82:J90"/>
+    <mergeCell ref="J91:J100"/>
+    <mergeCell ref="J101:J109"/>
+    <mergeCell ref="E91:E100"/>
+    <mergeCell ref="D82:D90"/>
+    <mergeCell ref="E82:E90"/>
     <mergeCell ref="J4:J7"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="B4:B15"/>
@@ -6765,86 +6879,39 @@
     <mergeCell ref="J62:J71"/>
     <mergeCell ref="J72:J81"/>
     <mergeCell ref="J141:J150"/>
-    <mergeCell ref="D16:D25"/>
-    <mergeCell ref="E16:E25"/>
-    <mergeCell ref="C72:C81"/>
-    <mergeCell ref="D72:D81"/>
-    <mergeCell ref="E72:E81"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="E62:E71"/>
-    <mergeCell ref="J110:J117"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="J82:J90"/>
-    <mergeCell ref="J91:J100"/>
-    <mergeCell ref="J101:J109"/>
-    <mergeCell ref="E91:E100"/>
-    <mergeCell ref="D82:D90"/>
-    <mergeCell ref="E82:E90"/>
-    <mergeCell ref="C160:C169"/>
-    <mergeCell ref="D160:D169"/>
-    <mergeCell ref="E160:E169"/>
-    <mergeCell ref="A179:A186"/>
-    <mergeCell ref="C179:C186"/>
-    <mergeCell ref="D179:D186"/>
-    <mergeCell ref="E179:E186"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="B16:B42"/>
-    <mergeCell ref="B91:B117"/>
-    <mergeCell ref="C91:C100"/>
-    <mergeCell ref="D91:D100"/>
-    <mergeCell ref="A110:A117"/>
-    <mergeCell ref="C110:C117"/>
-    <mergeCell ref="D110:D117"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A91:A100"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="B62:B90"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="J179:J186"/>
-    <mergeCell ref="A118:A129"/>
-    <mergeCell ref="B118:B150"/>
-    <mergeCell ref="C118:C129"/>
-    <mergeCell ref="D118:D129"/>
-    <mergeCell ref="E118:E129"/>
-    <mergeCell ref="J118:J129"/>
-    <mergeCell ref="A130:A140"/>
-    <mergeCell ref="C130:C140"/>
-    <mergeCell ref="D130:D140"/>
-    <mergeCell ref="E130:E140"/>
-    <mergeCell ref="J130:J140"/>
-    <mergeCell ref="A141:A150"/>
-    <mergeCell ref="C141:C150"/>
-    <mergeCell ref="D141:D150"/>
-    <mergeCell ref="E141:E150"/>
-    <mergeCell ref="J160:J169"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="C170:C178"/>
-    <mergeCell ref="D170:D178"/>
-    <mergeCell ref="E170:E178"/>
-    <mergeCell ref="J170:J178"/>
-    <mergeCell ref="A160:A169"/>
-    <mergeCell ref="B160:B186"/>
-    <mergeCell ref="J208:J216"/>
-    <mergeCell ref="J187:J197"/>
-    <mergeCell ref="A198:A207"/>
-    <mergeCell ref="C198:C207"/>
-    <mergeCell ref="D198:D207"/>
-    <mergeCell ref="E198:E207"/>
-    <mergeCell ref="J198:J207"/>
-    <mergeCell ref="A187:A197"/>
-    <mergeCell ref="B187:B216"/>
-    <mergeCell ref="C187:C197"/>
-    <mergeCell ref="D187:D197"/>
-    <mergeCell ref="E187:E197"/>
-    <mergeCell ref="A208:A216"/>
-    <mergeCell ref="C208:C216"/>
-    <mergeCell ref="D208:D216"/>
-    <mergeCell ref="E208:E216"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:D52"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="C53:C61"/>
+    <mergeCell ref="D53:D61"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="B43:B61"/>
+    <mergeCell ref="J156:J159"/>
+    <mergeCell ref="A151:I151"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="D101:D109"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="E156:E159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E110:E117"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
